--- a/src/plano-de-aulas.xlsx
+++ b/src/plano-de-aulas.xlsx
@@ -407,7 +407,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -457,14 +457,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="6" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
@@ -473,15 +465,20 @@
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="1">
@@ -1035,7 +1032,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" topLeftCell="A6" zoomScale="110" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" topLeftCell="A17" zoomScale="110" workbookViewId="0">
       <selection activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -1244,14 +1241,14 @@
         <f>A10 + 7</f>
         <v>45726</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1260,14 +1257,14 @@
         <f>A11 +7</f>
         <v>45730</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1276,17 +1273,17 @@
         <f>A12 + 7</f>
         <v>45733</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1295,22 +1292,22 @@
         <f>A13 +7</f>
         <v>45737</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" ht="36" customHeight="1">
       <c r="A16" s="3">
         <f>A14 + 7</f>
         <v>45740</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" ht="36" customHeight="1">
       <c r="A17" s="3">
@@ -1382,7 +1379,7 @@
       </c>
     </row>
     <row r="21" ht="36" customHeight="1">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -1392,7 +1389,7 @@
         <v>34</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="17" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1433,7 +1430,7 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" ht="36" customHeight="1">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1456,12 +1453,12 @@
         <f>A22 +7</f>
         <v>45765</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" ht="36" customHeight="1">
       <c r="A26" s="3">
@@ -1471,9 +1468,9 @@
       <c r="B26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
       <c r="G26" s="8"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1524,12 +1521,12 @@
         <f>A27 +7</f>
         <v>45779</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
       <c r="F29" t="s">
         <v>16</v>
       </c>
@@ -1665,7 +1662,7 @@
       <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1683,7 +1680,7 @@
       <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>48</v>
       </c>
       <c r="XFD3" s="8"/>
@@ -1703,7 +1700,7 @@
       <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1722,7 +1719,7 @@
       <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1741,7 +1738,7 @@
       <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="8"/>
@@ -1764,7 +1761,7 @@
       <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="8"/>
@@ -1787,7 +1784,7 @@
       <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="8"/>
@@ -1810,7 +1807,7 @@
       <c r="E9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1829,7 +1826,7 @@
       <c r="E10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1848,7 +1845,7 @@
       <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="8"/>
@@ -1871,7 +1868,7 @@
       <c r="E12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1890,7 +1887,7 @@
       <c r="E13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1915,7 +1912,7 @@
         <f>A13 +7</f>
         <v>45555</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -1933,7 +1930,7 @@
         <f>A14 + 7</f>
         <v>45559</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -1961,7 +1958,7 @@
       <c r="E17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1980,7 +1977,7 @@
       <c r="E18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>48</v>
       </c>
       <c r="G18" s="8"/>
@@ -2003,7 +2000,7 @@
       <c r="E19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="8"/>
@@ -2026,7 +2023,7 @@
       <c r="E20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2045,7 +2042,7 @@
       <c r="E21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2084,7 +2081,7 @@
       <c r="E23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2103,7 +2100,7 @@
       <c r="E24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>48</v>
       </c>
       <c r="G24" s="8"/>
@@ -2288,7 +2285,7 @@
       <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2306,7 +2303,7 @@
       <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2325,7 +2322,7 @@
       <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2344,7 +2341,7 @@
       <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2363,7 +2360,7 @@
       <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="8"/>
@@ -2386,7 +2383,7 @@
       <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="8"/>
@@ -2409,7 +2406,7 @@
       <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="8"/>
@@ -2432,7 +2429,7 @@
       <c r="E9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2451,7 +2448,7 @@
       <c r="E10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2470,7 +2467,7 @@
       <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="8"/>
@@ -2493,7 +2490,7 @@
       <c r="E12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2512,7 +2509,7 @@
       <c r="E13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2537,7 +2534,7 @@
         <f>A13 +7</f>
         <v>45555</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -2555,7 +2552,7 @@
         <f>A14 + 7</f>
         <v>45559</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -2573,15 +2570,15 @@
         <f>A15 +7</f>
         <v>45562</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2600,7 +2597,7 @@
       <c r="E18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="24" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="8"/>
@@ -2623,7 +2620,7 @@
       <c r="E19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="24" t="s">
         <v>56</v>
       </c>
       <c r="G19" s="8"/>
@@ -2662,7 +2659,7 @@
       <c r="E21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="24" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2681,7 +2678,7 @@
       <c r="E22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="24" t="s">
         <v>56</v>
       </c>
       <c r="G22" s="8"/>
@@ -2720,7 +2717,7 @@
       <c r="E24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>56</v>
       </c>
       <c r="G24" s="8"/>
@@ -2743,7 +2740,7 @@
       <c r="E25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="24" t="s">
         <v>56</v>
       </c>
       <c r="G25" s="8"/>
@@ -2878,17 +2875,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2896,14 +2893,14 @@
       <c r="A2" s="8">
         <v>45327</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2911,46 +2908,46 @@
       <c r="A3" s="8">
         <v>45331</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" ht="15">
-      <c r="A4" s="28">
+      <c r="A4" s="27">
         <f>A2 + 7</f>
         <v>45334</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" ht="35.049999999999997">
       <c r="A5" s="8">
         <f>A3 +7</f>
         <v>45338</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2959,14 +2956,14 @@
         <f>A4 + 7</f>
         <v>45341</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2975,14 +2972,14 @@
         <f>A5 +7</f>
         <v>45345</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2991,14 +2988,14 @@
         <f>A6 + 7</f>
         <v>45348</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3007,14 +3004,14 @@
         <f>A7 +7</f>
         <v>45352</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3023,14 +3020,14 @@
         <f>A8 + 7</f>
         <v>45355</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3039,14 +3036,14 @@
         <f>A9 +7</f>
         <v>45359</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3055,14 +3052,14 @@
         <f>A10 + 7</f>
         <v>45362</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="25" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3071,14 +3068,14 @@
         <f>A11 +7</f>
         <v>45366</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="25" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3087,14 +3084,14 @@
         <f>A12 + 7</f>
         <v>45369</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3103,16 +3100,16 @@
         <f>A13 +7</f>
         <v>45373</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3121,34 +3118,34 @@
         <f>A14 + 7</f>
         <v>45376</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" ht="15">
-      <c r="A17" s="28">
+      <c r="A17" s="27">
         <f>A15 +7</f>
         <v>45380</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="28" t="s">
         <v>59</v>
       </c>
       <c r="I17" s="8"/>
@@ -3158,14 +3155,14 @@
         <f>A16 + 7</f>
         <v>45383</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3174,14 +3171,14 @@
         <f>A17 +7</f>
         <v>45387</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="25" t="s">
         <v>62</v>
       </c>
       <c r="I19" s="8"/>
@@ -3191,14 +3188,14 @@
         <f>A18 + 7</f>
         <v>45390</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="25" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3207,14 +3204,14 @@
         <f>A19 +7</f>
         <v>45394</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="25" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3223,14 +3220,14 @@
         <f>A20 + 7</f>
         <v>45397</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="25" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3239,14 +3236,14 @@
         <f>A21 +7</f>
         <v>45401</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="25" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3255,14 +3252,14 @@
         <f>A22 + 7</f>
         <v>45404</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="25" t="s">
         <v>69</v>
       </c>
       <c r="I24" s="8"/>
@@ -3272,14 +3269,14 @@
         <f>A23 +7</f>
         <v>45408</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="25" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3288,14 +3285,14 @@
         <f>A24 + 7</f>
         <v>45411</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="25" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3304,14 +3301,14 @@
         <f>A25 +7</f>
         <v>45415</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="25" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3320,50 +3317,50 @@
         <f>A26 + 7</f>
         <v>45418</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" ht="15">
-      <c r="A29" s="28">
+      <c r="A29" s="27">
         <f>A27 +7</f>
         <v>45422</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" ht="15">
-      <c r="A30" s="28">
+      <c r="A30" s="27">
         <f>A28 + 7</f>
         <v>45425</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="30" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3408,18 +3405,18 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15">
-      <c r="A2" s="32">
+      <c r="A2" s="31">
         <v>45152</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3427,10 +3424,10 @@
       </c>
     </row>
     <row r="3" ht="15">
-      <c r="A3" s="32">
+      <c r="A3" s="31">
         <v>45156</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3438,11 +3435,11 @@
       </c>
     </row>
     <row r="4" ht="15">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <f>A2 + 7</f>
         <v>45159</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3450,11 +3447,11 @@
       </c>
     </row>
     <row r="5" ht="15">
-      <c r="A5" s="32">
+      <c r="A5" s="31">
         <f>A3 +7</f>
         <v>45163</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3465,11 +3462,11 @@
       </c>
     </row>
     <row r="6" ht="15">
-      <c r="A6" s="32">
+      <c r="A6" s="31">
         <f>A4 + 7</f>
         <v>45166</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3480,11 +3477,11 @@
       </c>
     </row>
     <row r="7" ht="15">
-      <c r="A7" s="32">
+      <c r="A7" s="31">
         <f>A5 +7</f>
         <v>45170</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3494,12 +3491,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" s="30" customFormat="1" ht="15">
-      <c r="A8" s="32">
+    <row r="8" s="29" customFormat="1" ht="15">
+      <c r="A8" s="31">
         <f>A6 + 7</f>
         <v>45173</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3514,19 +3511,19 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" ht="15">
-      <c r="A9" s="28">
+      <c r="A9" s="27">
         <f>A7 +7</f>
         <v>45177</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" ht="15">
       <c r="A10" s="8">
@@ -3563,10 +3560,10 @@
         <f>A10 + 7</f>
         <v>45187</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3575,8 +3572,8 @@
         <f>A11 +7</f>
         <v>45191</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="34" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3585,8 +3582,8 @@
         <f>A12 + 7</f>
         <v>45194</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="34" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3613,10 +3610,10 @@
         <f>A14 + 7</f>
         <v>45201</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3645,19 +3642,19 @@
       </c>
     </row>
     <row r="19" ht="15">
-      <c r="A19" s="28">
+      <c r="A19" s="27">
         <f>A17 +7</f>
         <v>45212</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
     </row>
     <row r="20" ht="15">
       <c r="A20" s="8">
@@ -3723,19 +3720,19 @@
       </c>
     </row>
     <row r="25" ht="15">
-      <c r="A25" s="28">
+      <c r="A25" s="27">
         <f>A23 +7</f>
         <v>45233</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" ht="15">
       <c r="A26" s="8">
@@ -3750,12 +3747,12 @@
       </c>
     </row>
     <row r="27" ht="15">
-      <c r="A27" s="34">
+      <c r="A27" s="33">
         <f>A25 +7</f>
         <v>45240</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34" t="s">
         <v>47</v>
       </c>
     </row>

--- a/src/plano-de-aulas.xlsx
+++ b/src/plano-de-aulas.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="93">
   <si>
     <t xml:space="preserve">Data</t>
   </si>
@@ -105,61 +105,61 @@
     <t xml:space="preserve">PI</t>
   </si>
   <si>
+    <t xml:space="preserve">Intro a Grafos: ADT, componentes e ciclos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introdução a Grafos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definições básicas de grafos: vértices, arestas, grau, ciclos e componentes. (ref Cormen cap 22.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluno usa ADT matriz ligada para representar grafo e cria alguns grafos manualmente usando a ADT. Aluno cria matrizes de adjacências a partir de um desenho de um grafo (ref Cormen cap 22.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Componentes Conexos, ciclos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluno implementa DFS para encontrar componentes conexos e ciclos.  (ref Cormen 22.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluno implementa DFS para encontrar componentes conexos e ciclos. (ref Cormen 22.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caminhos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFS + Fila (ref Cormen 10.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFS + Fila (ref Cormen 22.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grafos com pesos: Dijkstra e caminhos mínimos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulação do algoritmo + implementação da ADT min-heap (ref Cormen 24.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aula de exercícios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AULA CANCELADA - LUTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIAGEM SIGCSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARNAVAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Atendimentos extras com ninjas vão aqui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intro a Grafos: ADT, componentes e ciclos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introdução a Grafos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definições básicas de grafos: vértices, arestas, grau, ciclos e componentes. (ref Cormen cap 22.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aluno usa ADT matriz ligada para representar grafo e cria alguns grafos manualmente usando a ADT. Aluno cria matrizes de adjacências a partir de um desenho de um grafo (ref Cormen cap 22.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Componentes Conexos, ciclos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aluno implementa DFS para encontrar componentes conexos e ciclos.  (ref Cormen 22.3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aluno implementa DFS para encontrar componentes conexos e ciclos. (ref Cormen 22.3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caminhos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFS + Fila (ref Cormen 10.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFS + Fila (ref Cormen 22.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grafos com pesos: Dijkstra e caminhos mínimos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulação do algoritmo + implementação da ADT min-heap (ref Cormen 24.3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aula de exercícios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AULA CANCELADA - LUTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIAGEM SIGCSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARNAVAL</t>
   </si>
   <si>
     <t xml:space="preserve">REPOSIÇÃO</t>
@@ -452,7 +452,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -480,11 +480,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -504,7 +504,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -512,11 +512,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -524,7 +524,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -536,7 +536,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -544,7 +544,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -552,19 +552,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -819,8 +819,8 @@
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="B26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1052,9 +1052,6 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
@@ -1072,14 +1069,14 @@
         <v>45929</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1088,14 +1085,14 @@
         <v>45933</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1104,14 +1101,14 @@
         <v>45936</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -1121,14 +1118,14 @@
         <v>45940</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -1138,17 +1135,14 @@
         <v>45943</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1157,14 +1151,14 @@
         <v>45947</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1185,14 +1179,14 @@
         <v>45954</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="1"/>
@@ -1205,14 +1199,14 @@
         <v>45957</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="1"/>
@@ -1225,14 +1219,14 @@
         <v>45961</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1261,7 +1255,7 @@
         <v>45968</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1286,53 +1280,14 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
-    </row>
+    <row r="30" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B11:E11"/>
@@ -1358,7 +1313,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="1" sqref="B26:E26 A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1474,7 +1429,7 @@
         <v>45709</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1487,16 +1442,16 @@
         <v>45712</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1506,16 +1461,16 @@
         <v>45716</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>20</v>
@@ -1527,16 +1482,16 @@
         <v>45719</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1607,7 +1562,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1638,14 +1593,14 @@
         <v>45744</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1654,14 +1609,14 @@
         <v>45747</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -1671,14 +1626,14 @@
         <v>45751</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -1688,14 +1643,14 @@
         <v>45754</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>20</v>
@@ -1706,7 +1661,7 @@
         <v>45</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>46</v>
@@ -1722,14 +1677,14 @@
         <v>45758</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1738,14 +1693,14 @@
         <v>45761</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="1"/>
@@ -1757,14 +1712,14 @@
         <v>45</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="1"/>
@@ -1805,14 +1760,14 @@
         <v>45772</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="1"/>
@@ -1825,14 +1780,14 @@
         <v>45775</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="1"/>
@@ -1883,16 +1838,16 @@
         <v>45786</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1901,16 +1856,16 @@
         <v>45789</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1940,7 +1895,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="1" sqref="B26:E26 C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2178,14 +2133,14 @@
         <v>45545</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>50</v>
@@ -2197,14 +2152,14 @@
         <v>45548</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>50</v>
@@ -2268,14 +2223,14 @@
         <v>45562</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>50</v>
@@ -2287,14 +2242,14 @@
         <v>45566</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>50</v>
@@ -2310,7 +2265,7 @@
         <v>45569</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>46</v>
@@ -2333,14 +2288,14 @@
         <v>45573</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>50</v>
@@ -2352,14 +2307,14 @@
         <v>45576</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>50</v>
@@ -2391,14 +2346,14 @@
         <v>45583</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>50</v>
@@ -2410,14 +2365,14 @@
         <v>45587</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>50</v>
@@ -2509,16 +2464,16 @@
         <v>45604</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2527,16 +2482,16 @@
         <v>45608</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2558,7 +2513,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="1" sqref="B26:E26 F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2796,14 +2751,14 @@
         <v>45545</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>54</v>
@@ -2815,14 +2770,14 @@
         <v>45548</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>54</v>
@@ -2903,14 +2858,14 @@
         <v>45566</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>57</v>
@@ -2926,14 +2881,14 @@
         <v>45569</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>57</v>
@@ -2949,7 +2904,7 @@
         <v>45573</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>46</v>
@@ -2965,14 +2920,14 @@
         <v>45576</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>57</v>
@@ -2984,14 +2939,14 @@
         <v>45580</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>57</v>
@@ -3023,14 +2978,14 @@
         <v>45587</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>57</v>
@@ -3046,14 +3001,14 @@
         <v>45590</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>57</v>
@@ -3125,16 +3080,16 @@
         <v>45604</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3143,16 +3098,16 @@
         <v>45608</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3174,7 +3129,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B26:E26 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3354,10 +3309,10 @@
         <v>45362</v>
       </c>
       <c r="B12" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>28</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>65</v>
@@ -3454,10 +3409,10 @@
         <v>45383</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>28</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>65</v>
@@ -3485,10 +3440,10 @@
         <v>45390</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>68</v>
@@ -3515,7 +3470,7 @@
         <v>45397</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>46</v>
@@ -3545,10 +3500,10 @@
         <v>45404</v>
       </c>
       <c r="B24" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>70</v>
@@ -3576,10 +3531,10 @@
         <v>45411</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>71</v>
@@ -3621,16 +3576,16 @@
         <v>45422</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3639,16 +3594,16 @@
         <v>45425</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3670,7 +3625,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B26:E26 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3729,10 +3684,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="0"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="26" t="n">
@@ -3755,10 +3710,10 @@
         <v>45166</v>
       </c>
       <c r="B6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>65</v>
@@ -3770,10 +3725,10 @@
         <v>45170</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>68</v>
@@ -3785,7 +3740,7 @@
         <v>45173</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>46</v>
@@ -3818,10 +3773,10 @@
         <v>45180</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>70</v>
@@ -3833,10 +3788,10 @@
         <v>45184</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>71</v>
@@ -3848,7 +3803,7 @@
         <v>45187</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>72</v>
@@ -4040,7 +3995,7 @@
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
